--- a/StockData/season_eps.xlsx
+++ b/StockData/season_eps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,46 @@
           <t>EPS_2002</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>season_2317</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_2317</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>season_2731</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_2731</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>season_3687</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EPS_3687</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20234</t>
+          <t>20241</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,18 +524,48 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>0.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20241</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20241</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>20241</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20233</t>
+          <t>20234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,18 +586,48 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>0.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20234</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20234</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>20234</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.64</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20232</t>
+          <t>20233</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,18 +648,48 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>-0.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20233</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20233</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>20233</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20231</t>
+          <t>20232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,18 +710,48 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>0.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20232</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20232</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>20232</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20224</t>
+          <t>20231</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,18 +772,48 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>-0.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20231</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20231</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>20231</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20223</t>
+          <t>20224</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,18 +834,48 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>-0.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20224</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20224</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1.49</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>20224</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20222</t>
+          <t>20223</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,18 +896,48 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>0.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20223</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20223</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-2.36</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>20223</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.37</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20221</t>
+          <t>20222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -718,18 +958,48 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>0.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20222</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20222</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-2.80</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>20222</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20214</t>
+          <t>20221</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -750,18 +1020,48 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>20221</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20221</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>20221</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.54</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20213</t>
+          <t>20214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -782,18 +1082,48 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20214</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20214</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>20214</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20212</t>
+          <t>20213</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -814,18 +1144,48 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>1.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20213</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20213</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-2.18</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>20213</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.71</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20211</t>
+          <t>20212</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -846,18 +1206,48 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20212</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20212</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>20212</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20204</t>
+          <t>20211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -878,18 +1268,48 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20211</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20211</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>20211</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.52</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20203</t>
+          <t>20204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -910,18 +1330,48 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>0.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>20204</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20204</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-1.06</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>20204</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20202</t>
+          <t>20203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -942,18 +1392,48 @@
       <c r="F16" t="inlineStr">
         <is>
           <t>-0.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20203</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20203</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-2.43</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>20203</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.42</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201</t>
+          <t>20202</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -974,18 +1454,48 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>-0.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-2.90</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.38</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20194</t>
+          <t>20201</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1006,18 +1516,48 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>-0.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20193</t>
+          <t>20194</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1038,18 +1578,48 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>-0.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20194</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20194</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>20194</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20192</t>
+          <t>20193</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1070,18 +1640,48 @@
       <c r="F20" t="inlineStr">
         <is>
           <t>0.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20193</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20193</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>20193</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20191</t>
+          <t>20192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1102,18 +1702,48 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>0.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20192</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20192</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>20192</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-0.05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20184</t>
+          <t>20191</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1134,18 +1764,48 @@
       <c r="F22" t="inlineStr">
         <is>
           <t>0.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20191</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20191</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>20191</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-0.26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20183</t>
+          <t>20184</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1166,6 +1826,36 @@
       <c r="F23" t="inlineStr">
         <is>
           <t>0.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20184</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20184</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>20184</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-1.49</t>
         </is>
       </c>
     </row>
